--- a/docs/us-core-medicationrequest.xlsx
+++ b/docs/us-core-medicationrequest.xlsx
@@ -474,7 +474,7 @@
     <t>The kind of medication order.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent</t>
   </si>
   <si>
     <t>Request.intent</t>
@@ -561,7 +561,7 @@
   </si>
   <si>
     <t>boolean
-Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)</t>
+Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|RelatedPerson)</t>
   </si>
   <si>
     <t>Reported rather than primary record</t>
@@ -739,7 +739,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|RelatedPerson)
 </t>
   </si>
   <si>
@@ -3535,7 +3535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>141</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>54</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>55</v>
@@ -3634,7 +3634,7 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>147</v>
@@ -4001,7 +4001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>172</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>54</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>45</v>
@@ -4098,7 +4098,7 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
@@ -4350,7 +4350,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>202</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>54</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
@@ -4449,7 +4449,7 @@
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>207</v>
